--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Ptgs2-Cav1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Ptgs2-Cav1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -85,16 +88,13 @@
     <t>M2</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Ptgs2</t>
   </si>
   <si>
     <t>Cav1</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>29.5293429397433</v>
+        <v>0.716074</v>
       </c>
       <c r="H2">
-        <v>29.5293429397433</v>
+        <v>2.148222</v>
       </c>
       <c r="I2">
-        <v>0.2395633847242418</v>
+        <v>0.004590105285172198</v>
       </c>
       <c r="J2">
-        <v>0.2395633847242418</v>
+        <v>0.004590105285172199</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>790.745816029059</v>
+        <v>821.2295326666666</v>
       </c>
       <c r="N2">
-        <v>790.745816029059</v>
+        <v>2463.688598</v>
       </c>
       <c r="O2">
-        <v>0.8405344483347963</v>
+        <v>0.8346340193176814</v>
       </c>
       <c r="P2">
-        <v>0.8405344483347963</v>
+        <v>0.8346340193176814</v>
       </c>
       <c r="Q2">
-        <v>23350.20437968925</v>
+        <v>588.0611163747507</v>
       </c>
       <c r="R2">
-        <v>23350.20437968925</v>
+        <v>5292.550047372755</v>
       </c>
       <c r="S2">
-        <v>0.2013612774204071</v>
+        <v>0.003831058023254604</v>
       </c>
       <c r="T2">
-        <v>0.2013612774204071</v>
+        <v>0.003831058023254605</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>29.5293429397433</v>
+        <v>0.716074</v>
       </c>
       <c r="H3">
-        <v>29.5293429397433</v>
+        <v>2.148222</v>
       </c>
       <c r="I3">
-        <v>0.2395633847242418</v>
+        <v>0.004590105285172198</v>
       </c>
       <c r="J3">
-        <v>0.2395633847242418</v>
+        <v>0.004590105285172199</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>74.7719676100087</v>
+        <v>74.99448166666667</v>
       </c>
       <c r="N3">
-        <v>74.7719676100087</v>
+        <v>224.983445</v>
       </c>
       <c r="O3">
-        <v>0.0794799204396629</v>
+        <v>0.07621857613528174</v>
       </c>
       <c r="P3">
-        <v>0.0794799204396629</v>
+        <v>0.07621857613528175</v>
       </c>
       <c r="Q3">
-        <v>2207.967073835325</v>
+        <v>53.70159846497667</v>
       </c>
       <c r="R3">
-        <v>2207.967073835325</v>
+        <v>483.3143861847901</v>
       </c>
       <c r="S3">
-        <v>0.01904047875813909</v>
+        <v>0.0003498512891468563</v>
       </c>
       <c r="T3">
-        <v>0.01904047875813909</v>
+        <v>0.0003498512891468564</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>29.5293429397433</v>
+        <v>0.716074</v>
       </c>
       <c r="H4">
-        <v>29.5293429397433</v>
+        <v>2.148222</v>
       </c>
       <c r="I4">
-        <v>0.2395633847242418</v>
+        <v>0.004590105285172198</v>
       </c>
       <c r="J4">
-        <v>0.2395633847242418</v>
+        <v>0.004590105285172199</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.84345566615913</v>
+        <v>4.069220000000001</v>
       </c>
       <c r="N4">
-        <v>3.84345566615913</v>
+        <v>12.20766</v>
       </c>
       <c r="O4">
-        <v>0.004085455556726705</v>
+        <v>0.004135639682927042</v>
       </c>
       <c r="P4">
-        <v>0.004085455556726705</v>
+        <v>0.004135639682927042</v>
       </c>
       <c r="Q4">
-        <v>113.4947204397125</v>
+        <v>2.91386264228</v>
       </c>
       <c r="R4">
-        <v>113.4947204397125</v>
+        <v>26.22476378052</v>
       </c>
       <c r="S4">
-        <v>0.000978725561309911</v>
+        <v>1.898302156617129E-05</v>
       </c>
       <c r="T4">
-        <v>0.000978725561309911</v>
+        <v>1.898302156617129E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,123 +711,123 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>29.5293429397433</v>
+        <v>0.716074</v>
       </c>
       <c r="H5">
-        <v>29.5293429397433</v>
+        <v>2.148222</v>
       </c>
       <c r="I5">
-        <v>0.2395633847242418</v>
+        <v>0.004590105285172198</v>
       </c>
       <c r="J5">
-        <v>0.2395633847242418</v>
+        <v>0.004590105285172199</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>71.404267207475</v>
+        <v>0.7919616666666668</v>
       </c>
       <c r="N5">
-        <v>71.404267207475</v>
+        <v>2.375885</v>
       </c>
       <c r="O5">
-        <v>0.07590017566881417</v>
+        <v>0.000804888429729458</v>
       </c>
       <c r="P5">
-        <v>0.07590017566881417</v>
+        <v>0.000804888429729458</v>
       </c>
       <c r="Q5">
-        <v>2108.521093730596</v>
+        <v>0.5671031584966667</v>
       </c>
       <c r="R5">
-        <v>2108.521093730596</v>
+        <v>5.10392842647</v>
       </c>
       <c r="S5">
-        <v>0.01818290298438566</v>
+        <v>3.694522635275137E-06</v>
       </c>
       <c r="T5">
-        <v>0.01818290298438566</v>
+        <v>3.694522635275137E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>44.6559032777706</v>
+        <v>0.716074</v>
       </c>
       <c r="H6">
-        <v>44.6559032777706</v>
+        <v>2.148222</v>
       </c>
       <c r="I6">
-        <v>0.3622809812927753</v>
+        <v>0.004590105285172198</v>
       </c>
       <c r="J6">
-        <v>0.3622809812927753</v>
+        <v>0.004590105285172199</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>790.745816029059</v>
+        <v>82.85448733333334</v>
       </c>
       <c r="N6">
-        <v>790.745816029059</v>
+        <v>248.563462</v>
       </c>
       <c r="O6">
-        <v>0.8405344483347963</v>
+        <v>0.08420687643438036</v>
       </c>
       <c r="P6">
-        <v>0.8405344483347963</v>
+        <v>0.08420687643438036</v>
       </c>
       <c r="Q6">
-        <v>35311.46867789544</v>
+        <v>59.32994416272933</v>
       </c>
       <c r="R6">
-        <v>35311.46867789544</v>
+        <v>533.969497464564</v>
       </c>
       <c r="S6">
-        <v>0.3045096447531115</v>
+        <v>0.0003865184285692915</v>
       </c>
       <c r="T6">
-        <v>0.3045096447531115</v>
+        <v>0.0003865184285692916</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>44.6559032777706</v>
+        <v>29.56513</v>
       </c>
       <c r="H7">
-        <v>44.6559032777706</v>
+        <v>88.69539</v>
       </c>
       <c r="I7">
-        <v>0.3622809812927753</v>
+        <v>0.1895154124710618</v>
       </c>
       <c r="J7">
-        <v>0.3622809812927753</v>
+        <v>0.1895154124710619</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>74.7719676100087</v>
+        <v>821.2295326666666</v>
       </c>
       <c r="N7">
-        <v>74.7719676100087</v>
+        <v>2463.688598</v>
       </c>
       <c r="O7">
-        <v>0.0794799204396629</v>
+        <v>0.8346340193176814</v>
       </c>
       <c r="P7">
-        <v>0.0794799204396629</v>
+        <v>0.8346340193176814</v>
       </c>
       <c r="Q7">
-        <v>3339.009753481144</v>
+        <v>24279.75789312924</v>
       </c>
       <c r="R7">
-        <v>3339.009753481144</v>
+        <v>218517.8210381632</v>
       </c>
       <c r="S7">
-        <v>0.02879406356995278</v>
+        <v>0.1581760104333706</v>
       </c>
       <c r="T7">
-        <v>0.02879406356995278</v>
+        <v>0.1581760104333706</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>44.6559032777706</v>
+        <v>29.56513</v>
       </c>
       <c r="H8">
-        <v>44.6559032777706</v>
+        <v>88.69539</v>
       </c>
       <c r="I8">
-        <v>0.3622809812927753</v>
+        <v>0.1895154124710618</v>
       </c>
       <c r="J8">
-        <v>0.3622809812927753</v>
+        <v>0.1895154124710619</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.84345566615913</v>
+        <v>74.99448166666667</v>
       </c>
       <c r="N8">
-        <v>3.84345566615913</v>
+        <v>224.983445</v>
       </c>
       <c r="O8">
-        <v>0.004085455556726705</v>
+        <v>0.07621857613528174</v>
       </c>
       <c r="P8">
-        <v>0.004085455556726705</v>
+        <v>0.07621857613528175</v>
       </c>
       <c r="Q8">
-        <v>171.6329844804015</v>
+        <v>2217.221599757617</v>
       </c>
       <c r="R8">
-        <v>171.6329844804015</v>
+        <v>19954.99439781855</v>
       </c>
       <c r="S8">
-        <v>0.001480082848118972</v>
+        <v>0.01444459489423495</v>
       </c>
       <c r="T8">
-        <v>0.001480082848118972</v>
+        <v>0.01444459489423495</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,185 +959,185 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>44.6559032777706</v>
+        <v>29.56513</v>
       </c>
       <c r="H9">
-        <v>44.6559032777706</v>
+        <v>88.69539</v>
       </c>
       <c r="I9">
-        <v>0.3622809812927753</v>
+        <v>0.1895154124710618</v>
       </c>
       <c r="J9">
-        <v>0.3622809812927753</v>
+        <v>0.1895154124710619</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>71.404267207475</v>
+        <v>4.069220000000001</v>
       </c>
       <c r="N9">
-        <v>71.404267207475</v>
+        <v>12.20766</v>
       </c>
       <c r="O9">
-        <v>0.07590017566881417</v>
+        <v>0.004135639682927042</v>
       </c>
       <c r="P9">
-        <v>0.07590017566881417</v>
+        <v>0.004135639682927042</v>
       </c>
       <c r="Q9">
-        <v>3188.622050037091</v>
+        <v>120.3070182986</v>
       </c>
       <c r="R9">
-        <v>3188.622050037091</v>
+        <v>1082.7631646874</v>
       </c>
       <c r="S9">
-        <v>0.02749719012159202</v>
+        <v>0.0007837674603416098</v>
       </c>
       <c r="T9">
-        <v>0.02749719012159202</v>
+        <v>0.0007837674603416099</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>49.0779267992396</v>
+        <v>29.56513</v>
       </c>
       <c r="H10">
-        <v>49.0779267992396</v>
+        <v>88.69539</v>
       </c>
       <c r="I10">
-        <v>0.3981556339829829</v>
+        <v>0.1895154124710618</v>
       </c>
       <c r="J10">
-        <v>0.3981556339829829</v>
+        <v>0.1895154124710619</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>790.745816029059</v>
+        <v>0.7919616666666668</v>
       </c>
       <c r="N10">
-        <v>790.745816029059</v>
+        <v>2.375885</v>
       </c>
       <c r="O10">
-        <v>0.8405344483347963</v>
+        <v>0.000804888429729458</v>
       </c>
       <c r="P10">
-        <v>0.8405344483347963</v>
+        <v>0.000804888429729458</v>
       </c>
       <c r="Q10">
-        <v>38808.16527587914</v>
+        <v>23.41444963001667</v>
       </c>
       <c r="R10">
-        <v>38808.16527587914</v>
+        <v>210.73004667015</v>
       </c>
       <c r="S10">
-        <v>0.3346635261612776</v>
+        <v>0.0001525387627533635</v>
       </c>
       <c r="T10">
-        <v>0.3346635261612776</v>
+        <v>0.0001525387627533635</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>49.0779267992396</v>
+        <v>29.56513</v>
       </c>
       <c r="H11">
-        <v>49.0779267992396</v>
+        <v>88.69539</v>
       </c>
       <c r="I11">
-        <v>0.3981556339829829</v>
+        <v>0.1895154124710618</v>
       </c>
       <c r="J11">
-        <v>0.3981556339829829</v>
+        <v>0.1895154124710619</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>74.7719676100087</v>
+        <v>82.85448733333334</v>
       </c>
       <c r="N11">
-        <v>74.7719676100087</v>
+        <v>248.563462</v>
       </c>
       <c r="O11">
-        <v>0.0794799204396629</v>
+        <v>0.08420687643438036</v>
       </c>
       <c r="P11">
-        <v>0.0794799204396629</v>
+        <v>0.08420687643438036</v>
       </c>
       <c r="Q11">
-        <v>3669.653152999121</v>
+        <v>2449.603689093353</v>
       </c>
       <c r="R11">
-        <v>3669.653152999121</v>
+        <v>22046.43320184018</v>
       </c>
       <c r="S11">
-        <v>0.03164537811157102</v>
+        <v>0.01595850092036133</v>
       </c>
       <c r="T11">
-        <v>0.03164537811157102</v>
+        <v>0.01595850092036133</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>49.0779267992396</v>
+        <v>46.85464933333333</v>
       </c>
       <c r="H12">
-        <v>49.0779267992396</v>
+        <v>140.563948</v>
       </c>
       <c r="I12">
-        <v>0.3981556339829829</v>
+        <v>0.3003429443602524</v>
       </c>
       <c r="J12">
-        <v>0.3981556339829829</v>
+        <v>0.3003429443602524</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.84345566615913</v>
+        <v>821.2295326666666</v>
       </c>
       <c r="N12">
-        <v>3.84345566615913</v>
+        <v>2463.688598</v>
       </c>
       <c r="O12">
-        <v>0.004085455556726705</v>
+        <v>0.8346340193176814</v>
       </c>
       <c r="P12">
-        <v>0.004085455556726705</v>
+        <v>0.8346340193176814</v>
       </c>
       <c r="Q12">
-        <v>188.6288358398805</v>
+        <v>38478.42177527388</v>
       </c>
       <c r="R12">
-        <v>188.6288358398805</v>
+        <v>346305.7959774649</v>
       </c>
       <c r="S12">
-        <v>0.001626647147297821</v>
+        <v>0.2506764388251042</v>
       </c>
       <c r="T12">
-        <v>0.001626647147297821</v>
+        <v>0.2506764388251043</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,867 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>46.85464933333333</v>
+      </c>
+      <c r="H13">
+        <v>140.563948</v>
+      </c>
+      <c r="I13">
+        <v>0.3003429443602524</v>
+      </c>
+      <c r="J13">
+        <v>0.3003429443602524</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>74.99448166666667</v>
+      </c>
+      <c r="N13">
+        <v>224.983445</v>
+      </c>
+      <c r="O13">
+        <v>0.07621857613528174</v>
+      </c>
+      <c r="P13">
+        <v>0.07621857613528175</v>
+      </c>
+      <c r="Q13">
+        <v>3513.840140426762</v>
+      </c>
+      <c r="R13">
+        <v>31624.56126384086</v>
+      </c>
+      <c r="S13">
+        <v>0.02289171157141658</v>
+      </c>
+      <c r="T13">
+        <v>0.02289171157141659</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>46.85464933333333</v>
+      </c>
+      <c r="H14">
+        <v>140.563948</v>
+      </c>
+      <c r="I14">
+        <v>0.3003429443602524</v>
+      </c>
+      <c r="J14">
+        <v>0.3003429443602524</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>4.069220000000001</v>
+      </c>
+      <c r="N14">
+        <v>12.20766</v>
+      </c>
+      <c r="O14">
+        <v>0.004135639682927042</v>
+      </c>
+      <c r="P14">
+        <v>0.004135639682927042</v>
+      </c>
+      <c r="Q14">
+        <v>190.6618761601867</v>
+      </c>
+      <c r="R14">
+        <v>1715.95688544168</v>
+      </c>
+      <c r="S14">
+        <v>0.001242110199183409</v>
+      </c>
+      <c r="T14">
+        <v>0.001242110199183409</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>46.85464933333333</v>
+      </c>
+      <c r="H15">
+        <v>140.563948</v>
+      </c>
+      <c r="I15">
+        <v>0.3003429443602524</v>
+      </c>
+      <c r="J15">
+        <v>0.3003429443602524</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.7919616666666668</v>
+      </c>
+      <c r="N15">
+        <v>2.375885</v>
+      </c>
+      <c r="O15">
+        <v>0.000804888429729458</v>
+      </c>
+      <c r="P15">
+        <v>0.000804888429729458</v>
+      </c>
+      <c r="Q15">
+        <v>37.1070861771089</v>
+      </c>
+      <c r="R15">
+        <v>333.9637755939801</v>
+      </c>
+      <c r="S15">
+        <v>0.0002417425608664455</v>
+      </c>
+      <c r="T15">
+        <v>0.0002417425608664455</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>49.0779267992396</v>
-      </c>
-      <c r="H13">
-        <v>49.0779267992396</v>
-      </c>
-      <c r="I13">
-        <v>0.3981556339829829</v>
-      </c>
-      <c r="J13">
-        <v>0.3981556339829829</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>71.404267207475</v>
-      </c>
-      <c r="N13">
-        <v>71.404267207475</v>
-      </c>
-      <c r="O13">
-        <v>0.07590017566881417</v>
-      </c>
-      <c r="P13">
-        <v>0.07590017566881417</v>
-      </c>
-      <c r="Q13">
-        <v>3504.373399161803</v>
-      </c>
-      <c r="R13">
-        <v>3504.373399161803</v>
-      </c>
-      <c r="S13">
-        <v>0.03022008256283648</v>
-      </c>
-      <c r="T13">
-        <v>0.03022008256283648</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>46.85464933333333</v>
+      </c>
+      <c r="H16">
+        <v>140.563948</v>
+      </c>
+      <c r="I16">
+        <v>0.3003429443602524</v>
+      </c>
+      <c r="J16">
+        <v>0.3003429443602524</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>82.85448733333334</v>
+      </c>
+      <c r="N16">
+        <v>248.563462</v>
+      </c>
+      <c r="O16">
+        <v>0.08420687643438036</v>
+      </c>
+      <c r="P16">
+        <v>0.08420687643438036</v>
+      </c>
+      <c r="Q16">
+        <v>3882.117949696442</v>
+      </c>
+      <c r="R16">
+        <v>34939.06154726798</v>
+      </c>
+      <c r="S16">
+        <v>0.02529094120368175</v>
+      </c>
+      <c r="T16">
+        <v>0.02529094120368175</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>78.82870133333334</v>
+      </c>
+      <c r="H17">
+        <v>236.486104</v>
+      </c>
+      <c r="I17">
+        <v>0.5052997855157345</v>
+      </c>
+      <c r="J17">
+        <v>0.5052997855157345</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>821.2295326666666</v>
+      </c>
+      <c r="N17">
+        <v>2463.688598</v>
+      </c>
+      <c r="O17">
+        <v>0.8346340193176814</v>
+      </c>
+      <c r="P17">
+        <v>0.8346340193176814</v>
+      </c>
+      <c r="Q17">
+        <v>64736.45755669358</v>
+      </c>
+      <c r="R17">
+        <v>582628.1180102421</v>
+      </c>
+      <c r="S17">
+        <v>0.4217403909453599</v>
+      </c>
+      <c r="T17">
+        <v>0.4217403909453599</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>78.82870133333334</v>
+      </c>
+      <c r="H18">
+        <v>236.486104</v>
+      </c>
+      <c r="I18">
+        <v>0.5052997855157345</v>
+      </c>
+      <c r="J18">
+        <v>0.5052997855157345</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>74.99448166666667</v>
+      </c>
+      <c r="N18">
+        <v>224.983445</v>
+      </c>
+      <c r="O18">
+        <v>0.07621857613528174</v>
+      </c>
+      <c r="P18">
+        <v>0.07621857613528175</v>
+      </c>
+      <c r="Q18">
+        <v>5911.71759694981</v>
+      </c>
+      <c r="R18">
+        <v>53205.45837254829</v>
+      </c>
+      <c r="S18">
+        <v>0.03851323017347254</v>
+      </c>
+      <c r="T18">
+        <v>0.03851323017347255</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>78.82870133333334</v>
+      </c>
+      <c r="H19">
+        <v>236.486104</v>
+      </c>
+      <c r="I19">
+        <v>0.5052997855157345</v>
+      </c>
+      <c r="J19">
+        <v>0.5052997855157345</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>4.069220000000001</v>
+      </c>
+      <c r="N19">
+        <v>12.20766</v>
+      </c>
+      <c r="O19">
+        <v>0.004135639682927042</v>
+      </c>
+      <c r="P19">
+        <v>0.004135639682927042</v>
+      </c>
+      <c r="Q19">
+        <v>320.7713280396267</v>
+      </c>
+      <c r="R19">
+        <v>2886.94195235664</v>
+      </c>
+      <c r="S19">
+        <v>0.002089737844753395</v>
+      </c>
+      <c r="T19">
+        <v>0.002089737844753395</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>78.82870133333334</v>
+      </c>
+      <c r="H20">
+        <v>236.486104</v>
+      </c>
+      <c r="I20">
+        <v>0.5052997855157345</v>
+      </c>
+      <c r="J20">
+        <v>0.5052997855157345</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.7919616666666668</v>
+      </c>
+      <c r="N20">
+        <v>2.375885</v>
+      </c>
+      <c r="O20">
+        <v>0.000804888429729458</v>
+      </c>
+      <c r="P20">
+        <v>0.000804888429729458</v>
+      </c>
+      <c r="Q20">
+        <v>62.42930968911557</v>
+      </c>
+      <c r="R20">
+        <v>561.86378720204</v>
+      </c>
+      <c r="S20">
+        <v>0.0004067099509063915</v>
+      </c>
+      <c r="T20">
+        <v>0.0004067099509063915</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>78.82870133333334</v>
+      </c>
+      <c r="H21">
+        <v>236.486104</v>
+      </c>
+      <c r="I21">
+        <v>0.5052997855157345</v>
+      </c>
+      <c r="J21">
+        <v>0.5052997855157345</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>82.85448733333334</v>
+      </c>
+      <c r="N21">
+        <v>248.563462</v>
+      </c>
+      <c r="O21">
+        <v>0.08420687643438036</v>
+      </c>
+      <c r="P21">
+        <v>0.08420687643438036</v>
+      </c>
+      <c r="Q21">
+        <v>6531.311636125784</v>
+      </c>
+      <c r="R21">
+        <v>58781.80472513205</v>
+      </c>
+      <c r="S21">
+        <v>0.04254971660124236</v>
+      </c>
+      <c r="T21">
+        <v>0.04254971660124236</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.03927433333333333</v>
+      </c>
+      <c r="H22">
+        <v>0.117823</v>
+      </c>
+      <c r="I22">
+        <v>0.0002517523677789558</v>
+      </c>
+      <c r="J22">
+        <v>0.0002517523677789558</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>821.2295326666666</v>
+      </c>
+      <c r="N22">
+        <v>2463.688598</v>
+      </c>
+      <c r="O22">
+        <v>0.8346340193176814</v>
+      </c>
+      <c r="P22">
+        <v>0.8346340193176814</v>
+      </c>
+      <c r="Q22">
+        <v>32.25324240912822</v>
+      </c>
+      <c r="R22">
+        <v>290.2791816821539</v>
+      </c>
+      <c r="S22">
+        <v>0.000210121090592093</v>
+      </c>
+      <c r="T22">
+        <v>0.000210121090592093</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.03927433333333333</v>
+      </c>
+      <c r="H23">
+        <v>0.117823</v>
+      </c>
+      <c r="I23">
+        <v>0.0002517523677789558</v>
+      </c>
+      <c r="J23">
+        <v>0.0002517523677789558</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>74.99448166666667</v>
+      </c>
+      <c r="N23">
+        <v>224.983445</v>
+      </c>
+      <c r="O23">
+        <v>0.07621857613528174</v>
+      </c>
+      <c r="P23">
+        <v>0.07621857613528175</v>
+      </c>
+      <c r="Q23">
+        <v>2.945358271137223</v>
+      </c>
+      <c r="R23">
+        <v>26.508224440235</v>
+      </c>
+      <c r="S23">
+        <v>1.918820701079779E-05</v>
+      </c>
+      <c r="T23">
+        <v>1.918820701079779E-05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G24">
+        <v>0.03927433333333333</v>
+      </c>
+      <c r="H24">
+        <v>0.117823</v>
+      </c>
+      <c r="I24">
+        <v>0.0002517523677789558</v>
+      </c>
+      <c r="J24">
+        <v>0.0002517523677789558</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>4.069220000000001</v>
+      </c>
+      <c r="N24">
+        <v>12.20766</v>
+      </c>
+      <c r="O24">
+        <v>0.004135639682927042</v>
+      </c>
+      <c r="P24">
+        <v>0.004135639682927042</v>
+      </c>
+      <c r="Q24">
+        <v>0.1598159026866667</v>
+      </c>
+      <c r="R24">
+        <v>1.43834312418</v>
+      </c>
+      <c r="S24">
+        <v>1.041157082457493E-06</v>
+      </c>
+      <c r="T24">
+        <v>1.041157082457493E-06</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.03927433333333333</v>
+      </c>
+      <c r="H25">
+        <v>0.117823</v>
+      </c>
+      <c r="I25">
+        <v>0.0002517523677789558</v>
+      </c>
+      <c r="J25">
+        <v>0.0002517523677789558</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M25">
+        <v>0.7919616666666668</v>
+      </c>
+      <c r="N25">
+        <v>2.375885</v>
+      </c>
+      <c r="O25">
+        <v>0.000804888429729458</v>
+      </c>
+      <c r="P25">
+        <v>0.000804888429729458</v>
+      </c>
+      <c r="Q25">
+        <v>0.0311037664838889</v>
+      </c>
+      <c r="R25">
+        <v>0.279933898355</v>
+      </c>
+      <c r="S25">
+        <v>2.026325679822767E-07</v>
+      </c>
+      <c r="T25">
+        <v>2.026325679822767E-07</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G26">
+        <v>0.03927433333333333</v>
+      </c>
+      <c r="H26">
+        <v>0.117823</v>
+      </c>
+      <c r="I26">
+        <v>0.0002517523677789558</v>
+      </c>
+      <c r="J26">
+        <v>0.0002517523677789558</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>82.85448733333334</v>
+      </c>
+      <c r="N26">
+        <v>248.563462</v>
+      </c>
+      <c r="O26">
+        <v>0.08420687643438036</v>
+      </c>
+      <c r="P26">
+        <v>0.08420687643438036</v>
+      </c>
+      <c r="Q26">
+        <v>3.254054753691778</v>
+      </c>
+      <c r="R26">
+        <v>29.286492783226</v>
+      </c>
+      <c r="S26">
+        <v>2.119928052562521E-05</v>
+      </c>
+      <c r="T26">
+        <v>2.119928052562521E-05</v>
       </c>
     </row>
   </sheetData>
